--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.138179</v>
+      </c>
+      <c r="H2">
+        <v>0.414537</v>
+      </c>
+      <c r="I2">
+        <v>0.03953416978071796</v>
+      </c>
+      <c r="J2">
+        <v>0.03953416978071796</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.1826583333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.547975</v>
-      </c>
-      <c r="I2">
-        <v>0.05157382640662736</v>
-      </c>
-      <c r="J2">
-        <v>0.05157382640662736</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="N2">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="O2">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="P2">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="Q2">
-        <v>0.09130316829722224</v>
+        <v>0.03206687811233333</v>
       </c>
       <c r="R2">
-        <v>0.821728514675</v>
+        <v>0.288601903011</v>
       </c>
       <c r="S2">
-        <v>0.001367024782535176</v>
+        <v>0.0004628797978303222</v>
       </c>
       <c r="T2">
-        <v>0.001367024782535175</v>
+        <v>0.0004628797978303222</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1826583333333333</v>
+        <v>0.138179</v>
       </c>
       <c r="H3">
-        <v>0.547975</v>
+        <v>0.414537</v>
       </c>
       <c r="I3">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="J3">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>52.897882</v>
       </c>
       <c r="O3">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="P3">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="Q3">
-        <v>3.220746320994444</v>
+        <v>2.436458812292666</v>
       </c>
       <c r="R3">
-        <v>28.98671688895</v>
+        <v>21.928129310634</v>
       </c>
       <c r="S3">
-        <v>0.04822220434591805</v>
+        <v>0.03516985839735284</v>
       </c>
       <c r="T3">
-        <v>0.04822220434591804</v>
+        <v>0.03516985839735284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1826583333333333</v>
+        <v>0.138179</v>
       </c>
       <c r="H4">
-        <v>0.547975</v>
+        <v>0.414537</v>
       </c>
       <c r="I4">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="J4">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="N4">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="O4">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="P4">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="Q4">
-        <v>0.002583763011111111</v>
+        <v>0.1019543618373333</v>
       </c>
       <c r="R4">
-        <v>0.0232538671</v>
+        <v>0.9175892565360001</v>
       </c>
       <c r="S4">
-        <v>3.868505479337299E-05</v>
+        <v>0.001471693447359114</v>
       </c>
       <c r="T4">
-        <v>3.868505479337298E-05</v>
+        <v>0.001471693447359115</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1826583333333333</v>
+        <v>0.138179</v>
       </c>
       <c r="H5">
-        <v>0.547975</v>
+        <v>0.414537</v>
       </c>
       <c r="I5">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="J5">
-        <v>0.05157382640662736</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="N5">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="O5">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="P5">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="Q5">
-        <v>0.1299668839166666</v>
+        <v>0.1580522261976667</v>
       </c>
       <c r="R5">
-        <v>1.16970195525</v>
+        <v>1.422470035779</v>
       </c>
       <c r="S5">
-        <v>0.001945912223380762</v>
+        <v>0.002281456344229229</v>
       </c>
       <c r="T5">
-        <v>0.001945912223380762</v>
+        <v>0.00228145634422923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,25 +779,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.325406</v>
+        <v>0.138179</v>
       </c>
       <c r="H6">
-        <v>9.976217999999999</v>
+        <v>0.414537</v>
       </c>
       <c r="I6">
-        <v>0.9389328624967765</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="J6">
-        <v>0.9389328624967767</v>
+        <v>0.03953416978071796</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4998576666666667</v>
+        <v>0.07434200000000001</v>
       </c>
       <c r="N6">
-        <v>1.499573</v>
+        <v>0.223026</v>
       </c>
       <c r="O6">
-        <v>0.02650617333988447</v>
+        <v>0.003750724873417703</v>
       </c>
       <c r="P6">
-        <v>0.02650617333988446</v>
+        <v>0.003750724873417703</v>
       </c>
       <c r="Q6">
-        <v>1.662229683879333</v>
+        <v>0.010272503218</v>
       </c>
       <c r="R6">
-        <v>14.960067154914</v>
+        <v>0.092452528962</v>
       </c>
       <c r="S6">
-        <v>0.02488751720785347</v>
+        <v>0.0001482817939464574</v>
       </c>
       <c r="T6">
-        <v>0.02488751720785346</v>
+        <v>0.0001482817939464574</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +841,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +856,40 @@
         <v>9.976217999999999</v>
       </c>
       <c r="I7">
-        <v>0.9389328624967765</v>
+        <v>0.9514265220751211</v>
       </c>
       <c r="J7">
-        <v>0.9389328624967767</v>
+        <v>0.9514265220751212</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>17.63262733333333</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="N7">
-        <v>52.897882</v>
+        <v>0.696203</v>
       </c>
       <c r="O7">
-        <v>0.9350131201380354</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="P7">
-        <v>0.9350131201380353</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="Q7">
-        <v>58.63564473003066</v>
+        <v>0.7717192111393333</v>
       </c>
       <c r="R7">
-        <v>527.720802570276</v>
+        <v>6.945472900254</v>
       </c>
       <c r="S7">
-        <v>0.877914545363248</v>
+        <v>0.01113963233909451</v>
       </c>
       <c r="T7">
-        <v>0.877914545363248</v>
+        <v>0.01113963233909451</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +903,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +918,40 @@
         <v>9.976217999999999</v>
       </c>
       <c r="I8">
-        <v>0.9389328624967765</v>
+        <v>0.9514265220751211</v>
       </c>
       <c r="J8">
-        <v>0.9389328624967767</v>
+        <v>0.9514265220751212</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.01414533333333333</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="N8">
-        <v>0.042436</v>
+        <v>52.897882</v>
       </c>
       <c r="O8">
-        <v>0.0007500908404267997</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="P8">
-        <v>0.0007500908404267996</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="Q8">
-        <v>0.04703897633866667</v>
+        <v>58.63564473003066</v>
       </c>
       <c r="R8">
-        <v>0.423350787048</v>
+        <v>527.720802570276</v>
       </c>
       <c r="S8">
-        <v>0.0007042849399345478</v>
+        <v>0.8463953142931089</v>
       </c>
       <c r="T8">
-        <v>0.0007042849399345478</v>
+        <v>0.8463953142931091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +965,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +980,10 @@
         <v>9.976217999999999</v>
       </c>
       <c r="I9">
-        <v>0.9389328624967765</v>
+        <v>0.9514265220751211</v>
       </c>
       <c r="J9">
-        <v>0.9389328624967767</v>
+        <v>0.9514265220751212</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7115299999999999</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="N9">
-        <v>2.13459</v>
+        <v>2.213528</v>
       </c>
       <c r="O9">
-        <v>0.03773061568165336</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="P9">
-        <v>0.03773061568165335</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="Q9">
-        <v>2.366126131179999</v>
+        <v>2.453626430789333</v>
       </c>
       <c r="R9">
-        <v>21.29513518062</v>
+        <v>22.082637877104</v>
       </c>
       <c r="S9">
-        <v>0.03542651498574056</v>
+        <v>0.03541766997885845</v>
       </c>
       <c r="T9">
-        <v>0.03542651498574055</v>
+        <v>0.03541766997885847</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,25 +1027,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.03362233333333333</v>
+        <v>3.325406</v>
       </c>
       <c r="H10">
-        <v>0.100867</v>
+        <v>9.976217999999999</v>
       </c>
       <c r="I10">
-        <v>0.009493311096596161</v>
+        <v>0.9514265220751211</v>
       </c>
       <c r="J10">
-        <v>0.009493311096596162</v>
+        <v>0.9514265220751212</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4998576666666667</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="N10">
-        <v>1.499573</v>
+        <v>3.431467</v>
       </c>
       <c r="O10">
-        <v>0.02650617333988447</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="P10">
-        <v>0.02650617333988446</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="Q10">
-        <v>0.01680638108788889</v>
+        <v>3.803673650200666</v>
       </c>
       <c r="R10">
-        <v>0.151257429791</v>
+        <v>34.233062851806</v>
       </c>
       <c r="S10">
-        <v>0.0002516313494958265</v>
+        <v>0.05490536634248289</v>
       </c>
       <c r="T10">
-        <v>0.0002516313494958265</v>
+        <v>0.05490536634248291</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,25 +1089,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.03362233333333333</v>
+        <v>3.325406</v>
       </c>
       <c r="H11">
-        <v>0.100867</v>
+        <v>9.976217999999999</v>
       </c>
       <c r="I11">
-        <v>0.009493311096596161</v>
+        <v>0.9514265220751211</v>
       </c>
       <c r="J11">
-        <v>0.009493311096596162</v>
+        <v>0.9514265220751212</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.63262733333333</v>
+        <v>0.07434200000000001</v>
       </c>
       <c r="N11">
-        <v>52.897882</v>
+        <v>0.223026</v>
       </c>
       <c r="O11">
-        <v>0.9350131201380354</v>
+        <v>0.003750724873417703</v>
       </c>
       <c r="P11">
-        <v>0.9350131201380353</v>
+        <v>0.003750724873417703</v>
       </c>
       <c r="Q11">
-        <v>0.5928500737437776</v>
+        <v>0.247217332852</v>
       </c>
       <c r="R11">
-        <v>5.335650663694</v>
+        <v>2.224955995668</v>
       </c>
       <c r="S11">
-        <v>0.00887637042886941</v>
+        <v>0.003568539121576454</v>
       </c>
       <c r="T11">
-        <v>0.00887637042886941</v>
+        <v>0.003568539121576455</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1151,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.03362233333333333</v>
+        <v>0.031594</v>
       </c>
       <c r="H12">
-        <v>0.100867</v>
+        <v>0.09478200000000001</v>
       </c>
       <c r="I12">
-        <v>0.009493311096596161</v>
+        <v>0.009039308144160858</v>
       </c>
       <c r="J12">
-        <v>0.009493311096596162</v>
+        <v>0.009039308144160858</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.01414533333333333</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="N12">
-        <v>0.042436</v>
+        <v>0.696203</v>
       </c>
       <c r="O12">
-        <v>0.0007500908404267997</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="P12">
-        <v>0.0007500908404267996</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="Q12">
-        <v>0.0004755991124444444</v>
+        <v>0.007331945860666668</v>
       </c>
       <c r="R12">
-        <v>0.004280392012</v>
+        <v>0.06598751274600001</v>
       </c>
       <c r="S12">
-        <v>7.120845698878877E-06</v>
+        <v>0.0001058353608916782</v>
       </c>
       <c r="T12">
-        <v>7.120845698878878E-06</v>
+        <v>0.0001058353608916782</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1213,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.03362233333333333</v>
+        <v>0.031594</v>
       </c>
       <c r="H13">
-        <v>0.100867</v>
+        <v>0.09478200000000001</v>
       </c>
       <c r="I13">
-        <v>0.009493311096596161</v>
+        <v>0.009039308144160858</v>
       </c>
       <c r="J13">
-        <v>0.009493311096596162</v>
+        <v>0.009039308144160858</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1240,214 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7115299999999999</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="N13">
-        <v>2.13459</v>
+        <v>52.897882</v>
       </c>
       <c r="O13">
-        <v>0.03773061568165336</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="P13">
-        <v>0.03773061568165335</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="Q13">
-        <v>0.02392329883666666</v>
+        <v>0.5570852279693334</v>
       </c>
       <c r="R13">
-        <v>0.21530968953</v>
+        <v>5.013767051724</v>
       </c>
       <c r="S13">
-        <v>0.000358188472532045</v>
+        <v>0.008041428192460254</v>
       </c>
       <c r="T13">
-        <v>0.000358188472532045</v>
+        <v>0.008041428192460256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.031594</v>
+      </c>
+      <c r="H14">
+        <v>0.09478200000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.009039308144160858</v>
+      </c>
+      <c r="J14">
+        <v>0.009039308144160858</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7378426666666668</v>
+      </c>
+      <c r="N14">
+        <v>2.213528</v>
+      </c>
+      <c r="O14">
+        <v>0.03722585944063267</v>
+      </c>
+      <c r="P14">
+        <v>0.03722585944063268</v>
+      </c>
+      <c r="Q14">
+        <v>0.02331140121066667</v>
+      </c>
+      <c r="R14">
+        <v>0.209802610896</v>
+      </c>
+      <c r="S14">
+        <v>0.0003364960144150982</v>
+      </c>
+      <c r="T14">
+        <v>0.0003364960144150983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.031594</v>
+      </c>
+      <c r="H15">
+        <v>0.09478200000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.009039308144160858</v>
+      </c>
+      <c r="J15">
+        <v>0.009039308144160858</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.143822333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.431467</v>
+      </c>
+      <c r="O15">
+        <v>0.05770846730521116</v>
+      </c>
+      <c r="P15">
+        <v>0.05770846730521117</v>
+      </c>
+      <c r="Q15">
+        <v>0.03613792279933334</v>
+      </c>
+      <c r="R15">
+        <v>0.325241305194</v>
+      </c>
+      <c r="S15">
+        <v>0.0005216446184990359</v>
+      </c>
+      <c r="T15">
+        <v>0.0005216446184990359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.031594</v>
+      </c>
+      <c r="H16">
+        <v>0.09478200000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.009039308144160858</v>
+      </c>
+      <c r="J16">
+        <v>0.009039308144160858</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.223026</v>
+      </c>
+      <c r="O16">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="P16">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="Q16">
+        <v>0.002348761148</v>
+      </c>
+      <c r="R16">
+        <v>0.021138850332</v>
+      </c>
+      <c r="S16">
+        <v>3.390395789479135E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.390395789479135E-05</v>
       </c>
     </row>
   </sheetData>
